--- a/02_additional_lists/term_adjustment.xlsx
+++ b/02_additional_lists/term_adjustment.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uckert\R_Projects\RPtp\0_input\term_list\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103B49C1-5B81-4E19-8256-D4DB5DCE5AC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E295061-37C8-4566-AAD7-8B8FDEA0589F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" xr2:uid="{6742551A-18F6-4A52-BC55-99C513CF5C71}"/>
   </bookViews>
@@ -208,13 +203,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -237,13 +238,80 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -254,6 +322,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BB717204-CD89-4376-83C5-C5C7B39FC43B}" name="Table1" displayName="Table1" ref="A1:B30" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:B30" xr:uid="{2B6C4BC3-DF10-4A37-B293-D6B061611808}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C0F73927-3BC0-4F6D-9D87-DEE25D52620A}" name="term_orig" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{40500AD0-F488-4A23-A016-CF53E9FCE3A9}" name="term_adj" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -555,258 +634,262 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF2CFF4-5FC9-4D9A-9CF1-FB270CFA2E17}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="135.42578125" customWidth="1"/>
-    <col min="2" max="2" width="66" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>